--- a/03.crawler/01.RockAuto/file/2.part/crawler_2.xlsx
+++ b/03.crawler/01.RockAuto/file/2.part/crawler_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Manufacturer</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>OEM</t>
@@ -486,40 +486,35 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Json_Note 1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Note 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Choose</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Json_Price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Note 1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Note 2</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Group</t>
+          <t>Type Code</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Type Code</t>
+          <t>Part Code</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Part Code</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>JOIN_MPNTCPC</t>
         </is>
@@ -531,75 +526,70 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC1013</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5L8Z9030BA</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SK34151</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1013,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34151,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1013-FRO.jpg", "1": "https://www.rockauto.com/info/48/5L8Z9030BA-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34151_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34151_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34151_putaway_3.jpg"}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=920254&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741365&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"0": "$11.11"}</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"0": "Locking; Locking; 3 Ridges; Locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$24.89"}</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741365</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>920254</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1013;5900;920254</t>
+          <t>SKP;SK34151;10329;12741365</t>
         </is>
       </c>
     </row>
@@ -609,75 +599,70 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC1015</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6C3Z9030CA</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SK34152</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1015,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34152,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1015-FRO.jpg", "1": "https://www.rockauto.com/info/48/FC1015-ANG.jpg", "2": "https://www.rockauto.com/info/48/FC1015-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34152_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34152_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34152_putaway_3.jpg"}</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=920257&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741369&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"0": "$15.77"}</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"0": "Non-locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$21.79"}</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741369</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>920257</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1015;5900;920257</t>
+          <t>SKP;SK34152;10329;12741369</t>
         </is>
       </c>
     </row>
@@ -687,75 +672,70 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC1018</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6L8Z9030BA</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SK34153</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1018,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34153,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1018-FRO.jpg", "1": "https://www.rockauto.com/info/48/FC1018-ANG.jpg", "2": "https://www.rockauto.com/info/48/FC1018-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34153_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34153_putaway_2.jpg"}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=928351&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741373&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"0": "$16.27"}</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{"0": "Key Vent (Controlled Pressure Release); Locking; Locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$28.89"}</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741373</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>928351</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1018;5900;928351</t>
+          <t>SKP;SK34153;10329;12741373</t>
         </is>
       </c>
     </row>
@@ -765,75 +745,70 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC1021</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4F139030AB;4F1Z9030AA;FC987</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SK34155</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1021,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34155,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/fc987.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34155_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34155_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34155_putaway_3.jpg"}</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=511617&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741377&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"0": "$10.04"}</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$25.89"}</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741377</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>511617</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1021;5900;511617</t>
+          <t>SKP;SK34155;10329;12741377</t>
         </is>
       </c>
     </row>
@@ -843,75 +818,70 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC1024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6R3Z9030B</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SK34156</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1024,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34156,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1024-FRO.jpg", "1": "https://www.rockauto.com/info/48/FC1024-LEF.jpg", "2": "https://www.rockauto.com/info/48/FC1024-RIT.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34156_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34156_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34156_putaway_3.jpg"}</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=996398&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741381&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"0": "$7.69"}</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"0": "Non-locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$30.79"}</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741381</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>996398</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1024;5900;996398</t>
+          <t>SKP;SK34156;10329;12741381</t>
         </is>
       </c>
     </row>
@@ -921,75 +891,70 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC1032</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6R3Z9030A;FC1006</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SK34157</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1032,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34157,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1032-FRO.jpg", "1": "https://www.rockauto.com/info/48/6R3Z9030A-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34157_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34157_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34157_putaway_3.jpg", "3": "https://www.rockauto.com/info/983/983_SK34157_putaway_4.jpg"}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=996402&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741385&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"0": "$14.12"}</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>{"0": "Non-locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley (Only 1 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$35.79"}</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741385</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>996402</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1032;5900;996402</t>
+          <t>SKP;SK34157;10329;12741385</t>
         </is>
       </c>
     </row>
@@ -999,75 +964,70 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC1036</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6L8Z9030B;FC967;YL8A9030AA;YL8Z9030AA</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SK34158</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1036,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34158,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1036-FRO.jpg", "1": "https://www.rockauto.com/info/48/6L8Z9030B-BOT.jpg", "2": "https://www.rockauto.com/info/48/FC1036-ANG.jpg", "3": "https://www.rockauto.com/info/48/FC1036-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/SKP_SK34158_1.jpg", "1": "https://www.rockauto.com/info/983/SKP_SK34158_2.jpg", "2": "https://www.rockauto.com/info/983/SKP_SK34158_3.jpg"}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=996394&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12490597&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"0": "$6.86"}</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{"0": "Non-locking; 3 Ridges"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$36.79"}</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12490597</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>996394</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1036;5900;996394</t>
+          <t>SKP;SK34158;10329;12490597</t>
         </is>
       </c>
     </row>
@@ -1077,75 +1037,70 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC1054</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8L2Z9030A</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SK34159</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1054,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34159,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1054-FRO.jpg", "1": "https://www.rockauto.com/info/48/8L2Z9030A-BOT.jpg", "2": "https://www.rockauto.com/info/48/8L2Z9030A-TOP.jpg", "3": "https://www.rockauto.com/info/48/FC1054-ANG.jpg", "4": "https://www.rockauto.com/info/48/FC1054-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34159_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34159_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34159_putaway_3.jpg"}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=1287779&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12490601&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"0": "$13.09"}</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>{"0": "Non-locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$14.89"}</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12490601</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1287779</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1054;5900;1287779</t>
+          <t>SKP;SK34159;10329;12490601</t>
         </is>
       </c>
     </row>
@@ -1155,75 +1110,70 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC1055</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6L2Z9030E;FC1033</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SK34161</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1055,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34161,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1055-FRO.jpg", "1": "https://www.rockauto.com/info/48/6L2Z9030E-BAC.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/983_SK34161_putaway_1.jpg", "1": "https://www.rockauto.com/info/983/983_SK34161_putaway_2.jpg", "2": "https://www.rockauto.com/info/983/983_SK34161_putaway_3.jpg", "3": "https://www.rockauto.com/info/983/983_SK34161_putaway_4.jpg"}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=1287780&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12741389&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"0": "$29.79"}</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>{"0": "Locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$27.89"}</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12741389</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1287780</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1055;5900;1287780</t>
+          <t>SKP;SK34161;10329;12741389</t>
         </is>
       </c>
     </row>
@@ -1233,75 +1183,70 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fuel Tank Cap</t>
+          <t>Heat &amp; Air Conditioning</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MOTORCRAFT</t>
+          <t>A/C Compressor Bypass Pulley</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC1058</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6L2Z9030F</t>
-        </is>
-      </c>
+          <t>SKP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SK34162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/motorcraft,FC1058,fuel+tank+cap,5900</t>
+          <t>https://www.rockauto.com/en/parts/skp,SK34162,a/c+compressor+bypass+pulley,10329</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/48/FC1058-FRO.jpg", "1": "https://www.rockauto.com/info/48/6L2Z9030F-BOT.jpg", "2": "https://www.rockauto.com/info/48/FC1058-BAC.jpg", "3": "https://www.rockauto.com/info/48/FC1058-LEF.jpg", "4": "https://www.rockauto.com/info/48/FC1058-RIT.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/983/SKP_SK34162_1.jpg", "1": "https://www.rockauto.com/info/983/SKP_SK34162_2.jpg", "2": "https://www.rockauto.com/info/983/SKP_SK34162_3.jpg"}</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=1287796&amp;cc=0&amp;pt=5900</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=12490605&amp;cc=0&amp;pt=10329</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"0": "$6.55"}</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>{"0": "Non-locking"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: A/C Compressor Bypass Pulley"}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"0": "Category: Fuel Tank Cap"}</t>
+          <t>{"0": "$49.79"}</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Fuel &amp; Air</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>12490605</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1287796</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>MOTORCRAFT;FC1058;5900;1287796</t>
+          <t>SKP;SK34162;10329;12490605</t>
         </is>
       </c>
     </row>
